--- a/data/pca/factorExposure/factorExposure_2009-07-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01631863488346011</v>
+        <v>0.01620460416840119</v>
       </c>
       <c r="C2">
-        <v>-0.001303553911966657</v>
+        <v>0.0009725808416205238</v>
       </c>
       <c r="D2">
-        <v>0.007874168051534207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00940862551387381</v>
+      </c>
+      <c r="E2">
+        <v>0.001502543627027392</v>
+      </c>
+      <c r="F2">
+        <v>0.01230603579690596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.0906036098363425</v>
+        <v>0.09247938698221975</v>
       </c>
       <c r="C4">
-        <v>-0.01972328253299086</v>
+        <v>0.01466923594982766</v>
       </c>
       <c r="D4">
-        <v>0.07495376119532395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08163706335387975</v>
+      </c>
+      <c r="E4">
+        <v>0.02660380969955727</v>
+      </c>
+      <c r="F4">
+        <v>-0.03171686522932139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.920468387144487e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1.207334757017769e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-9.447657336634978e-06</v>
+      </c>
+      <c r="E5">
+        <v>-1.819950435177193e-05</v>
+      </c>
+      <c r="F5">
+        <v>-3.116394608267516e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1533144935034154</v>
+        <v>0.1615433337834067</v>
       </c>
       <c r="C6">
-        <v>-0.02918694893042749</v>
+        <v>0.02842370584046766</v>
       </c>
       <c r="D6">
-        <v>-0.03643471102116705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02696994571246927</v>
+      </c>
+      <c r="E6">
+        <v>0.00904557986510557</v>
+      </c>
+      <c r="F6">
+        <v>-0.04057664093755409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06056236112196917</v>
+        <v>0.06210790685551491</v>
       </c>
       <c r="C7">
-        <v>-0.001710664342428487</v>
+        <v>-0.001628725477316646</v>
       </c>
       <c r="D7">
-        <v>0.04821390171082907</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05275724577887987</v>
+      </c>
+      <c r="E7">
+        <v>0.01288092925574778</v>
+      </c>
+      <c r="F7">
+        <v>-0.04929113323314825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06172710814254052</v>
+        <v>0.05741765367232527</v>
       </c>
       <c r="C8">
-        <v>0.01080664807774215</v>
+        <v>-0.01245844233240367</v>
       </c>
       <c r="D8">
-        <v>0.02734954461247905</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03054630257479655</v>
+      </c>
+      <c r="E8">
+        <v>0.01691171721115437</v>
+      </c>
+      <c r="F8">
+        <v>0.02597074880567536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06959921903413506</v>
+        <v>0.07122850905018106</v>
       </c>
       <c r="C9">
-        <v>-0.01598271389512351</v>
+        <v>0.01029978709977479</v>
       </c>
       <c r="D9">
-        <v>0.07644114894277998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08529543186667023</v>
+      </c>
+      <c r="E9">
+        <v>0.02376245718291665</v>
+      </c>
+      <c r="F9">
+        <v>-0.04818612992056207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08479506232331373</v>
+        <v>0.0875343950965005</v>
       </c>
       <c r="C10">
-        <v>-0.01449258506128098</v>
+        <v>0.02145089989297009</v>
       </c>
       <c r="D10">
-        <v>-0.1661531853882736</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1600156894225601</v>
+      </c>
+      <c r="E10">
+        <v>-0.03295554090003557</v>
+      </c>
+      <c r="F10">
+        <v>0.05850062890133503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09075495889477717</v>
+        <v>0.08749124252025663</v>
       </c>
       <c r="C11">
-        <v>-0.01714467660428153</v>
+        <v>0.01121050603334827</v>
       </c>
       <c r="D11">
-        <v>0.1100719736684905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1175280355065599</v>
+      </c>
+      <c r="E11">
+        <v>0.04740905296928528</v>
+      </c>
+      <c r="F11">
+        <v>-0.02371848597694055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.0956074944006695</v>
+        <v>0.08998535827766917</v>
       </c>
       <c r="C12">
-        <v>-0.01478669651504235</v>
+        <v>0.008364209967525243</v>
       </c>
       <c r="D12">
-        <v>0.1164719309802953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1321988249158906</v>
+      </c>
+      <c r="E12">
+        <v>0.04693720948803878</v>
+      </c>
+      <c r="F12">
+        <v>-0.03058284435592888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04458152205318689</v>
+        <v>0.04368153023991818</v>
       </c>
       <c r="C13">
-        <v>-0.006200877350612235</v>
+        <v>0.002461102894329814</v>
       </c>
       <c r="D13">
-        <v>0.04306823813292708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05381629598332095</v>
+      </c>
+      <c r="E13">
+        <v>-0.0002614253972861461</v>
+      </c>
+      <c r="F13">
+        <v>-0.00406539680289526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01929001239647164</v>
+        <v>0.02367521233961803</v>
       </c>
       <c r="C14">
-        <v>-0.01498161990621942</v>
+        <v>0.01373689008465088</v>
       </c>
       <c r="D14">
-        <v>0.02902591959498632</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03223265576521628</v>
+      </c>
+      <c r="E14">
+        <v>0.01792623493554405</v>
+      </c>
+      <c r="F14">
+        <v>-0.0125487206265117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0334768081216838</v>
+        <v>0.0335484313792886</v>
       </c>
       <c r="C15">
-        <v>-0.007470050795086297</v>
+        <v>0.005198125732215013</v>
       </c>
       <c r="D15">
-        <v>0.04246131908011214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04645639676068242</v>
+      </c>
+      <c r="E15">
+        <v>0.007551798396029864</v>
+      </c>
+      <c r="F15">
+        <v>-0.02945043298735721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07438129214071497</v>
+        <v>0.07239399110146821</v>
       </c>
       <c r="C16">
-        <v>-0.007333297250119156</v>
+        <v>0.001398126932713186</v>
       </c>
       <c r="D16">
-        <v>0.1143852830301425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1283998724317914</v>
+      </c>
+      <c r="E16">
+        <v>0.06146651929389794</v>
+      </c>
+      <c r="F16">
+        <v>-0.02687872703646877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-4.81888896417455e-05</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0003039849657422078</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001332437124149411</v>
+      </c>
+      <c r="E17">
+        <v>0.001030235242521639</v>
+      </c>
+      <c r="F17">
+        <v>0.002469643001908597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01977188560230506</v>
+        <v>0.04019654179341951</v>
       </c>
       <c r="C18">
-        <v>0.002704841398774829</v>
+        <v>-0.002766814548859392</v>
       </c>
       <c r="D18">
-        <v>0.02431581706726594</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01566230262399501</v>
+      </c>
+      <c r="E18">
+        <v>-0.006686265923433024</v>
+      </c>
+      <c r="F18">
+        <v>0.009879442646369205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0629136540070754</v>
+        <v>0.06208369968126697</v>
       </c>
       <c r="C20">
-        <v>-0.005239444442452534</v>
+        <v>0.0008759152663665677</v>
       </c>
       <c r="D20">
-        <v>0.06964911536460475</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07871509807748431</v>
+      </c>
+      <c r="E20">
+        <v>0.05718777209142489</v>
+      </c>
+      <c r="F20">
+        <v>-0.02962715287356851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03812022805134316</v>
+        <v>0.04056387952743053</v>
       </c>
       <c r="C21">
-        <v>-0.009433336571244389</v>
+        <v>0.006259833578144034</v>
       </c>
       <c r="D21">
-        <v>0.03402879168108897</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03700177790039699</v>
+      </c>
+      <c r="E21">
+        <v>-0.002031319591376973</v>
+      </c>
+      <c r="F21">
+        <v>0.02613052056036844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04128871943195914</v>
+        <v>0.04469072958123414</v>
       </c>
       <c r="C22">
-        <v>-0.001864149092948695</v>
+        <v>0.001087944973384392</v>
       </c>
       <c r="D22">
-        <v>-0.002075445973677213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007232602525154164</v>
+      </c>
+      <c r="E22">
+        <v>0.03823554378727973</v>
+      </c>
+      <c r="F22">
+        <v>0.04899206497464677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04125150224823286</v>
+        <v>0.04466667686725873</v>
       </c>
       <c r="C23">
-        <v>-0.001853785434620897</v>
+        <v>0.001078922182685743</v>
       </c>
       <c r="D23">
-        <v>-0.002052021852862285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007246857538936985</v>
+      </c>
+      <c r="E23">
+        <v>0.03841850857640683</v>
+      </c>
+      <c r="F23">
+        <v>0.04896447023834263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08203627515680066</v>
+        <v>0.07851245833460262</v>
       </c>
       <c r="C24">
-        <v>-0.007974717652527583</v>
+        <v>0.002210180729181172</v>
       </c>
       <c r="D24">
-        <v>0.1153380207607702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1207309710249035</v>
+      </c>
+      <c r="E24">
+        <v>0.04961897351984462</v>
+      </c>
+      <c r="F24">
+        <v>-0.02941841498281795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08691167908535258</v>
+        <v>0.08345048263331922</v>
       </c>
       <c r="C25">
-        <v>-0.01052519959928293</v>
+        <v>0.004881960905746153</v>
       </c>
       <c r="D25">
-        <v>0.1014426960119054</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1096729322954558</v>
+      </c>
+      <c r="E25">
+        <v>0.03260436011307268</v>
+      </c>
+      <c r="F25">
+        <v>-0.02680514188405688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05771151283122247</v>
+        <v>0.05964924131260459</v>
       </c>
       <c r="C26">
-        <v>-0.01741751363961462</v>
+        <v>0.01442191966747964</v>
       </c>
       <c r="D26">
-        <v>0.03030185577721968</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04334401234888752</v>
+      </c>
+      <c r="E26">
+        <v>0.02907577222619771</v>
+      </c>
+      <c r="F26">
+        <v>0.008106883095956257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1341724690322989</v>
+        <v>0.1423038786371496</v>
       </c>
       <c r="C28">
-        <v>-0.0136824693896583</v>
+        <v>0.02327528140327437</v>
       </c>
       <c r="D28">
-        <v>-0.2671590726360714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2609484603862964</v>
+      </c>
+      <c r="E28">
+        <v>-0.06892914574013412</v>
+      </c>
+      <c r="F28">
+        <v>-0.004593795590173222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0253394970611498</v>
+        <v>0.02853200459994193</v>
       </c>
       <c r="C29">
-        <v>-0.009542568965479257</v>
+        <v>0.008797733200105467</v>
       </c>
       <c r="D29">
-        <v>0.02745763724246673</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03001806322378752</v>
+      </c>
+      <c r="E29">
+        <v>0.01259495050568263</v>
+      </c>
+      <c r="F29">
+        <v>0.01364216464863527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06173653479746833</v>
+        <v>0.05891033401931402</v>
       </c>
       <c r="C30">
-        <v>-0.008878693985945407</v>
+        <v>0.002694414609632285</v>
       </c>
       <c r="D30">
-        <v>0.07399612119615835</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08715816878220166</v>
+      </c>
+      <c r="E30">
+        <v>0.0139891401739613</v>
+      </c>
+      <c r="F30">
+        <v>-0.07852936139938892</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05022374495168215</v>
+        <v>0.0513763678512593</v>
       </c>
       <c r="C31">
-        <v>-0.01717949047891111</v>
+        <v>0.01604354614661512</v>
       </c>
       <c r="D31">
-        <v>0.02190130581129185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02468429570894308</v>
+      </c>
+      <c r="E31">
+        <v>0.02843454935374614</v>
+      </c>
+      <c r="F31">
+        <v>0.0002883648260639091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04798856842450116</v>
+        <v>0.05211831961095559</v>
       </c>
       <c r="C32">
-        <v>-0.002508558658150847</v>
+        <v>-0.001385068602385261</v>
       </c>
       <c r="D32">
-        <v>0.02601440395769392</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03426584459846997</v>
+      </c>
+      <c r="E32">
+        <v>0.03286707082868768</v>
+      </c>
+      <c r="F32">
+        <v>-0.003086939344515957</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.090041445111777</v>
+        <v>0.08926739158508812</v>
       </c>
       <c r="C33">
-        <v>-0.01308395632763991</v>
+        <v>0.006948874948725772</v>
       </c>
       <c r="D33">
-        <v>0.08832569399972678</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.103483431482418</v>
+      </c>
+      <c r="E33">
+        <v>0.04658748680782683</v>
+      </c>
+      <c r="F33">
+        <v>-0.04325781190299163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0686872325807094</v>
+        <v>0.06724980684642108</v>
       </c>
       <c r="C34">
-        <v>-0.0154385739274458</v>
+        <v>0.01037380576917268</v>
       </c>
       <c r="D34">
-        <v>0.09656917318746595</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1095685462442719</v>
+      </c>
+      <c r="E34">
+        <v>0.03576589423106404</v>
+      </c>
+      <c r="F34">
+        <v>-0.03461476116907253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02505740279782561</v>
+        <v>0.0265379490225747</v>
       </c>
       <c r="C35">
-        <v>-0.003722940189392966</v>
+        <v>0.003021003233504774</v>
       </c>
       <c r="D35">
-        <v>0.008058670274287751</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01207323142925875</v>
+      </c>
+      <c r="E35">
+        <v>0.01271617253732544</v>
+      </c>
+      <c r="F35">
+        <v>-0.0003021719584036341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02566876226235292</v>
+        <v>0.02788657694936332</v>
       </c>
       <c r="C36">
-        <v>-0.007610753908702741</v>
+        <v>0.006872740105875552</v>
       </c>
       <c r="D36">
-        <v>0.03837078664878443</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03902841006204746</v>
+      </c>
+      <c r="E36">
+        <v>0.0167044701385236</v>
+      </c>
+      <c r="F36">
+        <v>-0.01395006907578398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001368393277159114</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008364198281303726</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.00262632943549285</v>
+      </c>
+      <c r="E37">
+        <v>-0.0001987599639207658</v>
+      </c>
+      <c r="F37">
+        <v>0.001652338350326723</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1124715273822003</v>
+        <v>0.1012014770140792</v>
       </c>
       <c r="C39">
-        <v>-0.02324131825005155</v>
+        <v>0.01615687317206601</v>
       </c>
       <c r="D39">
-        <v>0.1476290390481242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1510688357707023</v>
+      </c>
+      <c r="E39">
+        <v>0.05930576796001075</v>
+      </c>
+      <c r="F39">
+        <v>-0.02188352190576021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03861395602402361</v>
+        <v>0.04390839587146794</v>
       </c>
       <c r="C40">
-        <v>-0.009320672848070722</v>
+        <v>0.007642336775754875</v>
       </c>
       <c r="D40">
-        <v>0.02201317652859253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03251000744512526</v>
+      </c>
+      <c r="E40">
+        <v>0.002212164905492873</v>
+      </c>
+      <c r="F40">
+        <v>0.01715307278398391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02523191286667589</v>
+        <v>0.0273753119676882</v>
       </c>
       <c r="C41">
-        <v>-0.007315694958201589</v>
+        <v>0.006869996286010972</v>
       </c>
       <c r="D41">
-        <v>0.00955050366360099</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01086677241233152</v>
+      </c>
+      <c r="E41">
+        <v>0.01195400706086111</v>
+      </c>
+      <c r="F41">
+        <v>0.007269772075687994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04205666641063262</v>
+        <v>0.04007221376220116</v>
       </c>
       <c r="C43">
-        <v>-0.00817166633504802</v>
+        <v>0.007643355513203469</v>
       </c>
       <c r="D43">
-        <v>0.01781285890213301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01923231034156389</v>
+      </c>
+      <c r="E43">
+        <v>0.02515319609057575</v>
+      </c>
+      <c r="F43">
+        <v>0.01611627968573869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07044439170332444</v>
+        <v>0.07910017582126709</v>
       </c>
       <c r="C44">
-        <v>-0.02513054295805913</v>
+        <v>0.019664604054173</v>
       </c>
       <c r="D44">
-        <v>0.09664149621101205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0968827979365595</v>
+      </c>
+      <c r="E44">
+        <v>0.06257934224119588</v>
+      </c>
+      <c r="F44">
+        <v>-0.1692773950078514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02172980160434248</v>
+        <v>0.02462155493091926</v>
       </c>
       <c r="C46">
-        <v>-0.004376346183354347</v>
+        <v>0.003766566569143546</v>
       </c>
       <c r="D46">
-        <v>0.00888737106087913</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01256392711316522</v>
+      </c>
+      <c r="E46">
+        <v>0.02700818242064933</v>
+      </c>
+      <c r="F46">
+        <v>0.005791557527598892</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05195195954449205</v>
+        <v>0.05167185390550602</v>
       </c>
       <c r="C47">
-        <v>-0.004784915731504956</v>
+        <v>0.004250355757332647</v>
       </c>
       <c r="D47">
-        <v>0.00770835109936375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01103243217471375</v>
+      </c>
+      <c r="E47">
+        <v>0.02253813699690662</v>
+      </c>
+      <c r="F47">
+        <v>0.03194001565647583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04814273412289133</v>
+        <v>0.05084672398608274</v>
       </c>
       <c r="C48">
-        <v>-0.004722623730390963</v>
+        <v>0.002267834153989532</v>
       </c>
       <c r="D48">
-        <v>0.04583058882077304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0498973392287751</v>
+      </c>
+      <c r="E48">
+        <v>-0.004958852805909892</v>
+      </c>
+      <c r="F48">
+        <v>-0.01206175557414934</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2006821771488778</v>
+        <v>0.1999519581547121</v>
       </c>
       <c r="C49">
-        <v>-0.02201468077218487</v>
+        <v>0.02044695009406304</v>
       </c>
       <c r="D49">
-        <v>-0.01095046775300586</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004609524284663935</v>
+      </c>
+      <c r="E49">
+        <v>0.03268838707850486</v>
+      </c>
+      <c r="F49">
+        <v>-0.04830010727226144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04972920991084403</v>
+        <v>0.05187184815907074</v>
       </c>
       <c r="C50">
-        <v>-0.01319489366080298</v>
+        <v>0.01174434267227419</v>
       </c>
       <c r="D50">
-        <v>0.02064519958760036</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02286667535495989</v>
+      </c>
+      <c r="E50">
+        <v>0.02941287679425762</v>
+      </c>
+      <c r="F50">
+        <v>-0.009976012453141801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1560304588570788</v>
+        <v>0.1495690817277773</v>
       </c>
       <c r="C52">
-        <v>-0.02075494571319906</v>
+        <v>0.01898855893808271</v>
       </c>
       <c r="D52">
-        <v>0.04448485059901908</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04269192229728202</v>
+      </c>
+      <c r="E52">
+        <v>0.02349350078253433</v>
+      </c>
+      <c r="F52">
+        <v>-0.04351315164386911</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1751008655897413</v>
+        <v>0.1699062236415097</v>
       </c>
       <c r="C53">
-        <v>-0.02125103982812908</v>
+        <v>0.02185900242845376</v>
       </c>
       <c r="D53">
-        <v>0.00731042573995969</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006067815347588617</v>
+      </c>
+      <c r="E53">
+        <v>0.03111495056558051</v>
+      </c>
+      <c r="F53">
+        <v>-0.07622363618566479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01655365074605078</v>
+        <v>0.01966029895642054</v>
       </c>
       <c r="C54">
-        <v>-0.01229049413789614</v>
+        <v>0.01094952750626042</v>
       </c>
       <c r="D54">
-        <v>0.02745946239992601</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03292200095849494</v>
+      </c>
+      <c r="E54">
+        <v>0.02098391883680258</v>
+      </c>
+      <c r="F54">
+        <v>0.002777611965946003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1176514622505772</v>
+        <v>0.1160422091037298</v>
       </c>
       <c r="C55">
-        <v>-0.01877060327659361</v>
+        <v>0.01897004028297543</v>
       </c>
       <c r="D55">
-        <v>0.007107075599533452</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008788154279651503</v>
+      </c>
+      <c r="E55">
+        <v>0.02628854301414725</v>
+      </c>
+      <c r="F55">
+        <v>-0.04744520014688857</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1809413044904598</v>
+        <v>0.176108332649311</v>
       </c>
       <c r="C56">
-        <v>-0.01923957366157501</v>
+        <v>0.01978896767547379</v>
       </c>
       <c r="D56">
-        <v>-0.0027055281145765</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002442045413231566</v>
+      </c>
+      <c r="E56">
+        <v>0.03307315517068987</v>
+      </c>
+      <c r="F56">
+        <v>-0.0556664096870341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0494668380989679</v>
+        <v>0.04691321665890479</v>
       </c>
       <c r="C58">
-        <v>-0.005749392015946652</v>
+        <v>0.0003499992318232948</v>
       </c>
       <c r="D58">
-        <v>0.06338066206856983</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07572176272806053</v>
+      </c>
+      <c r="E58">
+        <v>0.03670015503368138</v>
+      </c>
+      <c r="F58">
+        <v>0.03703564989260923</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1627548314441798</v>
+        <v>0.1675516708030389</v>
       </c>
       <c r="C59">
-        <v>-0.01544313115857887</v>
+        <v>0.02372933611854321</v>
       </c>
       <c r="D59">
-        <v>-0.2247957433348506</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2186231823773493</v>
+      </c>
+      <c r="E59">
+        <v>-0.0495134911114598</v>
+      </c>
+      <c r="F59">
+        <v>0.03897054874536766</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2379465906355666</v>
+        <v>0.2295667036918354</v>
       </c>
       <c r="C60">
-        <v>-0.002659542000412033</v>
+        <v>-0.0001551465484206083</v>
       </c>
       <c r="D60">
-        <v>0.03968670508487554</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03919025626429681</v>
+      </c>
+      <c r="E60">
+        <v>0.005776231570649956</v>
+      </c>
+      <c r="F60">
+        <v>-0.004650807819072622</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08356851536688713</v>
+        <v>0.07722358331098078</v>
       </c>
       <c r="C61">
-        <v>-0.01713858034975375</v>
+        <v>0.01144772323198352</v>
       </c>
       <c r="D61">
-        <v>0.1080241922257991</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1159781448564908</v>
+      </c>
+      <c r="E61">
+        <v>0.03796514722138522</v>
+      </c>
+      <c r="F61">
+        <v>-0.00832612341848038</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.172666538205232</v>
+        <v>0.1695031834964334</v>
       </c>
       <c r="C62">
-        <v>-0.02338354135821688</v>
+        <v>0.02265097102313735</v>
       </c>
       <c r="D62">
-        <v>0.001086954713420002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0063256472284279</v>
+      </c>
+      <c r="E62">
+        <v>0.03458155350463881</v>
+      </c>
+      <c r="F62">
+        <v>-0.04193707949773817</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04175740986202833</v>
+        <v>0.04559922106526162</v>
       </c>
       <c r="C63">
-        <v>-0.005501761291779439</v>
+        <v>0.001721469745939887</v>
       </c>
       <c r="D63">
-        <v>0.04806980345388243</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06016895837489104</v>
+      </c>
+      <c r="E63">
+        <v>0.02411059173202658</v>
+      </c>
+      <c r="F63">
+        <v>-0.0009976297025460126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1133023570852481</v>
+        <v>0.1108770215513207</v>
       </c>
       <c r="C64">
-        <v>-0.01580424783720952</v>
+        <v>0.01272297483537177</v>
       </c>
       <c r="D64">
-        <v>0.03221720229675992</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04234369877699551</v>
+      </c>
+      <c r="E64">
+        <v>0.02349413951319823</v>
+      </c>
+      <c r="F64">
+        <v>-0.02518771666874052</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.14362194548897</v>
+        <v>0.1515634661194347</v>
       </c>
       <c r="C65">
-        <v>-0.03521040995952359</v>
+        <v>0.03545972622539356</v>
       </c>
       <c r="D65">
-        <v>-0.05986312065091543</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0465284534680792</v>
+      </c>
+      <c r="E65">
+        <v>0.005957610500915283</v>
+      </c>
+      <c r="F65">
+        <v>-0.03694663733640999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1358786085692343</v>
+        <v>0.1221361665767255</v>
       </c>
       <c r="C66">
-        <v>-0.02178923930336572</v>
+        <v>0.01468401754299256</v>
       </c>
       <c r="D66">
-        <v>0.1280866297526006</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1391520624221533</v>
+      </c>
+      <c r="E66">
+        <v>0.06449139636360901</v>
+      </c>
+      <c r="F66">
+        <v>-0.02769485940026937</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0634536672742104</v>
+        <v>0.05602973222646157</v>
       </c>
       <c r="C67">
-        <v>-0.006005768021108341</v>
+        <v>0.003398015365045776</v>
       </c>
       <c r="D67">
-        <v>0.05425102604805004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05731022180709332</v>
+      </c>
+      <c r="E67">
+        <v>0.01849141764440299</v>
+      </c>
+      <c r="F67">
+        <v>0.03405426652765434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1070725056997844</v>
+        <v>0.1170080883615128</v>
       </c>
       <c r="C68">
-        <v>-0.02356255930396974</v>
+        <v>0.0340292991966669</v>
       </c>
       <c r="D68">
-        <v>-0.2648159598928005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2611667312158336</v>
+      </c>
+      <c r="E68">
+        <v>-0.08891682544789997</v>
+      </c>
+      <c r="F68">
+        <v>-0.0001203009814486251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03952426647506895</v>
+        <v>0.0383367307605814</v>
       </c>
       <c r="C69">
-        <v>-0.002173944410589009</v>
+        <v>0.001302471522322613</v>
       </c>
       <c r="D69">
-        <v>0.00663794912849903</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008293920602762199</v>
+      </c>
+      <c r="E69">
+        <v>0.02376562001891545</v>
+      </c>
+      <c r="F69">
+        <v>0.0008803615142313384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06598793253051208</v>
+        <v>0.06705624052368543</v>
       </c>
       <c r="C70">
-        <v>0.02446968339671055</v>
+        <v>-0.02685721353723119</v>
       </c>
       <c r="D70">
-        <v>0.01422486647000783</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02591346882149614</v>
+      </c>
+      <c r="E70">
+        <v>-0.03076129664214606</v>
+      </c>
+      <c r="F70">
+        <v>0.181887564817994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.126503001951711</v>
+        <v>0.1371052548622833</v>
       </c>
       <c r="C71">
-        <v>-0.02823611669512362</v>
+        <v>0.03873053585967988</v>
       </c>
       <c r="D71">
-        <v>-0.2819446628131978</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.271413828285866</v>
+      </c>
+      <c r="E71">
+        <v>-0.09827869617600443</v>
+      </c>
+      <c r="F71">
+        <v>-0.00584078052617177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1382548094730088</v>
+        <v>0.1449622079909128</v>
       </c>
       <c r="C72">
-        <v>-0.02809152563969949</v>
+        <v>0.02855827160658221</v>
       </c>
       <c r="D72">
-        <v>0.001214615479657115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004455086073403849</v>
+      </c>
+      <c r="E72">
+        <v>0.03831302093118506</v>
+      </c>
+      <c r="F72">
+        <v>-0.02817393877704091</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2048802528701807</v>
+        <v>0.203550377628565</v>
       </c>
       <c r="C73">
-        <v>-0.01719716151047914</v>
+        <v>0.01355104826787774</v>
       </c>
       <c r="D73">
-        <v>0.007840676549825209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01855090073297334</v>
+      </c>
+      <c r="E73">
+        <v>0.06627183147092131</v>
+      </c>
+      <c r="F73">
+        <v>-0.04225273151489004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09312824188171699</v>
+        <v>0.09445190072564988</v>
       </c>
       <c r="C74">
-        <v>-0.01456087039362704</v>
+        <v>0.01412078881210156</v>
       </c>
       <c r="D74">
-        <v>0.01564369177995441</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01707012514270145</v>
+      </c>
+      <c r="E74">
+        <v>0.04428776809436248</v>
+      </c>
+      <c r="F74">
+        <v>-0.05293375776969678</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1337663926027141</v>
+        <v>0.1261193297161011</v>
       </c>
       <c r="C75">
-        <v>-0.03098659539621641</v>
+        <v>0.02958292118999442</v>
       </c>
       <c r="D75">
-        <v>0.02672484640583258</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02971668003261797</v>
+      </c>
+      <c r="E75">
+        <v>0.05707393568797482</v>
+      </c>
+      <c r="F75">
+        <v>-0.02198374031097609</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08210984690323028</v>
+        <v>0.09053955414970669</v>
       </c>
       <c r="C77">
-        <v>-0.01470265532447084</v>
+        <v>0.008600736295663736</v>
       </c>
       <c r="D77">
-        <v>0.1050330984894456</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1148375051323181</v>
+      </c>
+      <c r="E77">
+        <v>0.04537186167127409</v>
+      </c>
+      <c r="F77">
+        <v>-0.03360495580541932</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09952602526073656</v>
+        <v>0.1009710184708874</v>
       </c>
       <c r="C78">
-        <v>-0.04414254869958194</v>
+        <v>0.03903511211747699</v>
       </c>
       <c r="D78">
-        <v>0.1104269157324776</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1113408693060362</v>
+      </c>
+      <c r="E78">
+        <v>0.07611657018566123</v>
+      </c>
+      <c r="F78">
+        <v>-0.05245185049307883</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1654975062189774</v>
+        <v>0.1632913631751094</v>
       </c>
       <c r="C79">
-        <v>-0.02586558854336</v>
+        <v>0.02485158205965399</v>
       </c>
       <c r="D79">
-        <v>0.008888297334379267</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01318589427091433</v>
+      </c>
+      <c r="E79">
+        <v>0.044761971965944</v>
+      </c>
+      <c r="F79">
+        <v>-0.01376210244443854</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08099772667627904</v>
+        <v>0.07948730031290251</v>
       </c>
       <c r="C80">
-        <v>-0.001631311843439839</v>
+        <v>-0.0005342226400068515</v>
       </c>
       <c r="D80">
-        <v>0.05704533937783293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05359636624849085</v>
+      </c>
+      <c r="E80">
+        <v>0.0324181286915592</v>
+      </c>
+      <c r="F80">
+        <v>0.02583255452483728</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1201129604804045</v>
+        <v>0.1165189352582224</v>
       </c>
       <c r="C81">
-        <v>-0.0329433640225074</v>
+        <v>0.03300566046080224</v>
       </c>
       <c r="D81">
-        <v>0.01540774968296695</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01416441833357405</v>
+      </c>
+      <c r="E81">
+        <v>0.05450091221718735</v>
+      </c>
+      <c r="F81">
+        <v>-0.01870742847766325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1659519540528559</v>
+        <v>0.1656467763659986</v>
       </c>
       <c r="C82">
-        <v>-0.02628736785293431</v>
+        <v>0.02724374971295875</v>
       </c>
       <c r="D82">
-        <v>0.01022992504369556</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003073571173727887</v>
+      </c>
+      <c r="E82">
+        <v>0.02891758371849333</v>
+      </c>
+      <c r="F82">
+        <v>-0.08303952735584648</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06356795299502907</v>
+        <v>0.05731216643594667</v>
       </c>
       <c r="C83">
-        <v>-0.005558735375018028</v>
+        <v>0.003362141421447252</v>
       </c>
       <c r="D83">
-        <v>0.04249516612949216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04768304148698528</v>
+      </c>
+      <c r="E83">
+        <v>0.001128324628699312</v>
+      </c>
+      <c r="F83">
+        <v>0.03579356129400537</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06207525470135581</v>
+        <v>0.05660914650229169</v>
       </c>
       <c r="C84">
-        <v>-0.0139562085630463</v>
+        <v>0.01094538453901704</v>
       </c>
       <c r="D84">
-        <v>0.06939074597904407</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07232149627570174</v>
+      </c>
+      <c r="E84">
+        <v>0.01394430647860905</v>
+      </c>
+      <c r="F84">
+        <v>-0.01540363804119954</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1389866194766045</v>
+        <v>0.1349027481863012</v>
       </c>
       <c r="C85">
-        <v>-0.0300433413603304</v>
+        <v>0.02979688360095451</v>
       </c>
       <c r="D85">
-        <v>0.009146963633743958</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01004688768628106</v>
+      </c>
+      <c r="E85">
+        <v>0.03696505974197603</v>
+      </c>
+      <c r="F85">
+        <v>-0.04859239724145491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1014434335356934</v>
+        <v>0.09366624111990668</v>
       </c>
       <c r="C86">
-        <v>0.002731711123000069</v>
+        <v>-0.005514389169896399</v>
       </c>
       <c r="D86">
-        <v>0.0107958711134044</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05315807184132681</v>
+      </c>
+      <c r="E86">
+        <v>0.2236469412522904</v>
+      </c>
+      <c r="F86">
+        <v>0.8979169391512059</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09699896104499553</v>
+        <v>0.09292187477724477</v>
       </c>
       <c r="C87">
-        <v>-0.02833945898104225</v>
+        <v>0.01958137277690595</v>
       </c>
       <c r="D87">
-        <v>0.07352794381346443</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09576414173177691</v>
+      </c>
+      <c r="E87">
+        <v>-0.05186510919836587</v>
+      </c>
+      <c r="F87">
+        <v>-0.05066343926349938</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06175336314712992</v>
+        <v>0.06071547578769881</v>
       </c>
       <c r="C88">
-        <v>-0.005309629433092556</v>
+        <v>0.002764493386375308</v>
       </c>
       <c r="D88">
-        <v>0.05208416099450292</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05015880797347594</v>
+      </c>
+      <c r="E88">
+        <v>0.02392685290706057</v>
+      </c>
+      <c r="F88">
+        <v>-0.01513666153213199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1183902922509598</v>
+        <v>0.1270380758783019</v>
       </c>
       <c r="C89">
-        <v>-0.004818014878362322</v>
+        <v>0.01397475350059302</v>
       </c>
       <c r="D89">
-        <v>-0.24671717674484</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2440318939137912</v>
+      </c>
+      <c r="E89">
+        <v>-0.09268171713879703</v>
+      </c>
+      <c r="F89">
+        <v>0.007916821293224366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1386950754723127</v>
+        <v>0.15210020113214</v>
       </c>
       <c r="C90">
-        <v>-0.02415866684452597</v>
+        <v>0.03536457214007506</v>
       </c>
       <c r="D90">
-        <v>-0.2662628571040798</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2682199082147878</v>
+      </c>
+      <c r="E90">
+        <v>-0.1142790748025335</v>
+      </c>
+      <c r="F90">
+        <v>0.009916407107023326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1209057410487936</v>
+        <v>0.1201728988069101</v>
       </c>
       <c r="C91">
-        <v>-0.02062561339231936</v>
+        <v>0.02126248665128529</v>
       </c>
       <c r="D91">
-        <v>-0.01688464198016653</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01612944316119915</v>
+      </c>
+      <c r="E91">
+        <v>0.05398026030902399</v>
+      </c>
+      <c r="F91">
+        <v>0.001201881577784086</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1402644781529526</v>
+        <v>0.1477899176722887</v>
       </c>
       <c r="C92">
-        <v>-0.01518957884379007</v>
+        <v>0.02665220315157413</v>
       </c>
       <c r="D92">
-        <v>-0.2986357822975063</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2914114798982162</v>
+      </c>
+      <c r="E92">
+        <v>-0.1016299952623283</v>
+      </c>
+      <c r="F92">
+        <v>0.02019082467272658</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1412911563014965</v>
+        <v>0.1530798054547871</v>
       </c>
       <c r="C93">
-        <v>-0.02048806568224029</v>
+        <v>0.03043401853636495</v>
       </c>
       <c r="D93">
-        <v>-0.2689864285371418</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2645953830097171</v>
+      </c>
+      <c r="E93">
+        <v>-0.0765428777355195</v>
+      </c>
+      <c r="F93">
+        <v>-0.001734147115043528</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1340399200267291</v>
+        <v>0.1267323309574921</v>
       </c>
       <c r="C94">
-        <v>-0.02754501745815914</v>
+        <v>0.02580140720090099</v>
       </c>
       <c r="D94">
-        <v>0.04007890725323792</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04058749703851856</v>
+      </c>
+      <c r="E94">
+        <v>0.057145963429036</v>
+      </c>
+      <c r="F94">
+        <v>-0.03321613174858856</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1244803756236687</v>
+        <v>0.1274550752203144</v>
       </c>
       <c r="C95">
-        <v>-0.009587870339828471</v>
+        <v>0.003877101982698195</v>
       </c>
       <c r="D95">
-        <v>0.08813898901466441</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09885791306725578</v>
+      </c>
+      <c r="E95">
+        <v>0.05454660829233252</v>
+      </c>
+      <c r="F95">
+        <v>-0.001798025996086187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1231371657981682</v>
+        <v>0.117838811344488</v>
       </c>
       <c r="C96">
-        <v>0.9866475202377396</v>
+        <v>-0.98616359669774</v>
       </c>
       <c r="D96">
-        <v>-0.01600177479686772</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05218253409955644</v>
+      </c>
+      <c r="E96">
+        <v>0.05193280947656282</v>
+      </c>
+      <c r="F96">
+        <v>-0.0423204900943133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1955890859554564</v>
+        <v>0.1964379049192843</v>
       </c>
       <c r="C97">
-        <v>0.003963955036635901</v>
+        <v>-0.004552859855055308</v>
       </c>
       <c r="D97">
-        <v>-0.01591167409790133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02149108388253141</v>
+      </c>
+      <c r="E97">
+        <v>0.02367278962796891</v>
+      </c>
+      <c r="F97">
+        <v>0.1187554453889758</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1986559600817878</v>
+        <v>0.2048439374667393</v>
       </c>
       <c r="C98">
-        <v>-0.01169639526331312</v>
+        <v>0.00799316463152901</v>
       </c>
       <c r="D98">
-        <v>0.0104022713402113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01519193997411452</v>
+      </c>
+      <c r="E98">
+        <v>-0.07595382250713179</v>
+      </c>
+      <c r="F98">
+        <v>0.09210010850702278</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05546017100356652</v>
+        <v>0.05536116000814485</v>
       </c>
       <c r="C99">
-        <v>0.001816546289755758</v>
+        <v>-0.003951180864694276</v>
       </c>
       <c r="D99">
-        <v>0.02975798679954718</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03832990749792884</v>
+      </c>
+      <c r="E99">
+        <v>0.02134380348999309</v>
+      </c>
+      <c r="F99">
+        <v>-0.003886237116572806</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1426671408643831</v>
+        <v>0.1302032623095974</v>
       </c>
       <c r="C100">
-        <v>0.03855734049581191</v>
+        <v>-0.05119786614525693</v>
       </c>
       <c r="D100">
-        <v>0.3936952076975764</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3535957446789539</v>
+      </c>
+      <c r="E100">
+        <v>-0.8850773842331765</v>
+      </c>
+      <c r="F100">
+        <v>0.1484379201333776</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02517251111008431</v>
+        <v>0.02846490066654447</v>
       </c>
       <c r="C101">
-        <v>-0.009442831756125588</v>
+        <v>0.008805065837527088</v>
       </c>
       <c r="D101">
-        <v>0.02710588383690139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02970142044029441</v>
+      </c>
+      <c r="E101">
+        <v>0.01201764876234372</v>
+      </c>
+      <c r="F101">
+        <v>0.01494208640473384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
